--- a/data/income_statement/2digits/total/13_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/13_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>13-Manufacture of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>13-Manufacture of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>39163336.98607</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>48168143.6238</v>
+        <v>48175935.64187</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>62438433.80095</v>
+        <v>62449836.03269999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>67774121.28295</v>
+        <v>67967556.77717</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>76613810.71318999</v>
+        <v>76927242.75376999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>88726595.78981</v>
+        <v>89365457.27975</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>92386934.0113</v>
+        <v>97445527.16038001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>107262001.2633</v>
+        <v>107623789.94519</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>137529577.88394</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>181375750.25697</v>
+        <v>181489834.62389</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>210809372.2582901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>212665687.1111</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>247865998.505</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>29516487.31955</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>37439124.99216001</v>
+        <v>37446238.69091</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>47988801.27967999</v>
+        <v>47999273.46259</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>53081816.78726</v>
+        <v>53213991.23471999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>59365600.63047</v>
+        <v>59558046.68061</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>69853710.53656</v>
+        <v>70281905.08144</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>73470291.88589999</v>
+        <v>76778586.26089999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>83729989.83008</v>
+        <v>84083403.78828</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>107613379.48393</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>139706999.6122</v>
+        <v>139818699.16826</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>164456849.05129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>166079158.11182</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>192239189.181</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>9106573.874150002</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10225082.29131</v>
+        <v>10225730.42389</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>13738145.44137</v>
+        <v>13739035.21208</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>14054125.97519</v>
+        <v>14113169.68136</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>16476178.87787</v>
+        <v>16588046.95751</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>17978309.74175</v>
+        <v>18183410.08685</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>17700344.41875</v>
+        <v>19387976.99486</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>22023722.27632</v>
+        <v>22028087.39387</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>28045191.32918999</v>
+        <v>28045191.32919</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>38454511.87852</v>
+        <v>38455911.99402</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>43268778.5199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>43486875.94777</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>51586578.206</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>540275.7923700002</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>503936.34033</v>
+        <v>503966.52707</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>711487.0799000001</v>
+        <v>711527.35803</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>638178.5205</v>
+        <v>640395.8610899999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>772031.2048499999</v>
+        <v>781149.1156500001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>894575.5115000001</v>
+        <v>900142.11146</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1216297.70665</v>
+        <v>1278963.90462</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1508289.1569</v>
+        <v>1512298.76304</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1871007.07082</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3214238.76625</v>
+        <v>3215223.46161</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3083744.6871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3099653.05151</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4040231.118</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>942823.0117499999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1031588.23614</v>
+        <v>1031618.88727</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1206442.7147</v>
+        <v>1206595.38882</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1256040.69685</v>
+        <v>1258387.30687</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1227781.3267</v>
+        <v>1227863.22891</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1738645.62896</v>
+        <v>1753333.8137</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1804316.1444</v>
+        <v>1913037.68342</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2119624.41066</v>
+        <v>2122786.21362</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2924802.55198</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3957441.56038</v>
+        <v>3958670.38413</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4037080.209349999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4062472.451069999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5073065.579</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>532925.6074100001</v>
+        <v>532925.6074099999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>566822.5326899999</v>
+        <v>566853.18382</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>759504.27249</v>
+        <v>759577.03626</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>820362.75209</v>
+        <v>822575.4549100001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>883040.3583800001</v>
+        <v>883069.4545799999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1193524.01351</v>
+        <v>1198558.35617</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1261328.35537</v>
+        <v>1313469.9551</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1512385.99646</v>
+        <v>1515012.37497</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2156166.011930001</v>
+        <v>2156166.01193</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2540026.0428</v>
+        <v>2540918.70648</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2830448.37987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2850676.41113</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3537595.34</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>263382.79697</v>
@@ -1190,37 +1126,42 @@
         <v>309796.86041</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>297908.27309</v>
+        <v>297988.18344</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>256744.60472</v>
+        <v>256822.76684</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>184147.14568</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>254945.63807</v>
+        <v>256045.50402</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>254259.01804</v>
+        <v>271352.207</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>288862.13227</v>
+        <v>288863.16732</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>330625.34157</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>412920.20101</v>
+        <v>412958.65786</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>471514.41183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>472174.01299</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>672126.068</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>146514.60737</v>
@@ -1232,190 +1173,215 @@
         <v>149030.16912</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>178933.34004</v>
+        <v>178989.08512</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>160593.82264</v>
+        <v>160646.62865</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>290175.97738</v>
+        <v>298729.95351</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>288728.77099</v>
+        <v>328215.5213200001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>318376.28193</v>
+        <v>318910.67133</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>438011.19848</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1004495.31657</v>
+        <v>1004793.01979</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>735117.4176500001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>739622.0269500001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>863344.171</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>38220513.97432</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>47136555.38766</v>
+        <v>47144316.7546</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>61231991.08625</v>
+        <v>61243240.64388</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>66518080.5861</v>
+        <v>66709169.4703</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>75386029.38649</v>
+        <v>75699379.52485998</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>86987950.16085</v>
+        <v>87612123.46605</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>90582617.8669</v>
+        <v>95532489.47695999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>105142376.85264</v>
+        <v>105501003.73157</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>134604775.33196</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>177418308.69659</v>
+        <v>177531164.23976</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>206772292.04894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>208603214.66003</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>242792932.926</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>33050719.49333</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>41411892.80833</v>
+        <v>41418509.79238001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>53012511.55598</v>
+        <v>53021669.19268</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>58770102.91858</v>
+        <v>58943449.99607</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>65257684.90485999</v>
+        <v>65524539.23501001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>75551819.92967999</v>
+        <v>76094742.8862</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>77112413.17310001</v>
+        <v>80961021.24548002</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>89239108.98011</v>
+        <v>89572947.56911999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>113248161.25228</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>146353852.75039</v>
+        <v>146457509.54421</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>176008703.3937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>177656902.29025</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>197204607.673</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>26521821.21344</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>33224409.01883</v>
+        <v>33230624.888</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>43345656.51482</v>
+        <v>43354394.02146</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>47981371.86422</v>
+        <v>48123257.25642</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>53227337.43641</v>
+        <v>53344965.61719</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>62222636.05992999</v>
+        <v>62708693.35997</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>63271919.47942</v>
+        <v>66475737.4912</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>72886016.98807</v>
+        <v>73172186.49259</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>92539803.18770999</v>
+        <v>92539803.18771</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>120735878.06604</v>
+        <v>120774179.17278</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>144879040.12675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>146155227.66327</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>160743597.223</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>4366467.121150001</v>
+        <v>4366467.12115</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>5694355.53357</v>
+        <v>5694756.64845</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>6762149.45224</v>
+        <v>6762569.05583</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7433718.988809999</v>
+        <v>7464609.79849</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>8295200.02307</v>
+        <v>8315487.12883</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>9002618.50089</v>
+        <v>9050638.873939998</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9501758.243369998</v>
+        <v>9958920.556840001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>11381322.05855</v>
+        <v>11418211.24999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>14590138.9058</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>17788643.55801</v>
+        <v>17825226.71446</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>21703227.36204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21965857.37168</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>26202742.534</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1891426.43849</v>
@@ -1424,37 +1390,42 @@
         <v>2173709.87721</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2463207.16339</v>
+        <v>2463207.68986</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2956782.09801</v>
+        <v>2956782.44704</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>3308724.2402</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3672828.48251</v>
+        <v>3680140.70615</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3762057.57909</v>
+        <v>3905950.923810001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4287035.11967</v>
+        <v>4289988.25763</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>5279867.41065</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6509398.060409999</v>
+        <v>6537967.63659</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7799442.883660001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7903913.4586</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8378033.002</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>271004.72025</v>
@@ -1463,115 +1434,130 @@
         <v>319418.37872</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>441498.4255299999</v>
+        <v>441498.42553</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>398229.96754</v>
+        <v>398800.49412</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>426423.20518</v>
+        <v>555362.24879</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>653736.8863500002</v>
+        <v>655269.94614</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>576677.87122</v>
+        <v>620412.27363</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>684734.8138199999</v>
+        <v>692561.56891</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>838351.7481199999</v>
+        <v>838351.7481200001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1319933.06593</v>
+        <v>1320136.02038</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1626993.02125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1631903.7967</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1880234.914</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>5169794.48099</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5724662.57933</v>
+        <v>5725806.962220001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8219479.530270001</v>
+        <v>8221571.451199999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>7747977.667520001</v>
+        <v>7765719.474230001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>10128344.48163</v>
+        <v>10174840.28985</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>11436130.23117</v>
+        <v>11517380.57985</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>13470204.6938</v>
+        <v>14571468.23148</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>15903267.87253</v>
+        <v>15928056.16245</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>21356614.07968</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>31064455.9462</v>
+        <v>31073654.69555</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>30763588.65524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>30946312.36978</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>45588325.253</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2842333.17664</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3150274.665099999</v>
+        <v>3150890.54976</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3804973.50276</v>
+        <v>3805753.86138</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4334997.42392</v>
+        <v>4341588.855559999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4871425.655440001</v>
+        <v>4895909.90588</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5690361.25069</v>
+        <v>5724729.895969999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5990808.93505</v>
+        <v>6463761.9212</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7289161.86724</v>
+        <v>7304888.531559999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>8454232.18041</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10403617.56386</v>
+        <v>10427469.44801</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12496687.58863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12594028.23904</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>13755701.175</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>37107.27462999999</v>
@@ -1589,187 +1575,212 @@
         <v>52520.44390000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>51684.38584</v>
+        <v>51713.82604</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>57579.1186</v>
+        <v>64762.13516</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>76801.81115000001</v>
+        <v>76801.81114999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>98185.14837000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>124894.41331</v>
+        <v>124894.51331</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>177454.71063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>178379.94759</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>183455.331</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1094248.16687</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1233368.56075</v>
+        <v>1233436.86788</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1532043.27893</v>
+        <v>1532135.31428</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1786829.32431</v>
+        <v>1788939.67953</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1981301.17436</v>
+        <v>1985033.97375</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2354703.82875</v>
+        <v>2367492.88459</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2441058.32342</v>
+        <v>2653581.37522</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2927030.98433</v>
+        <v>2931523.60796</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3567523.65116</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4579515.651149999</v>
+        <v>4582296.75257</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5452269.045489999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5474347.242460001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5994887.978</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1710977.73514</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1878310.8227</v>
+        <v>1878858.40023</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2229070.397</v>
+        <v>2229758.72027</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2507649.24071</v>
+        <v>2512130.31713</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2837604.03718</v>
+        <v>2858355.48823</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3283973.0361</v>
+        <v>3305523.18534</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3492171.49303</v>
+        <v>3745418.41082</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4285329.071760001</v>
+        <v>4296563.112450001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4788523.38088</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5699207.499400001</v>
+        <v>5720278.18213</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6866963.83251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6941301.04899</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7577357.866</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>2327461.30435</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2574387.91423</v>
+        <v>2574916.41246</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4414506.02751</v>
+        <v>4415817.589819999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3412980.2436</v>
+        <v>3424130.61867</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5256918.82619</v>
+        <v>5278930.38397</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5745768.980479999</v>
+        <v>5792650.68388</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7479395.75875</v>
+        <v>8107706.310280001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8614106.005290002</v>
+        <v>8623167.630889999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>12902381.89927</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>20660838.38234</v>
+        <v>20646185.24754</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>18266901.06661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18352284.13074</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>31832624.078</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>2245259.67388</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2336234.44953</v>
+        <v>2336541.9398</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3202327.81267</v>
+        <v>3203314.34096</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3209819.274360001</v>
+        <v>3219875.32291</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4177251.55014</v>
+        <v>4201606.4107</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5237097.186280001</v>
+        <v>5264942.98979</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9045515.81048</v>
+        <v>9766058.332470002</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8964175.019310001</v>
+        <v>8982127.290759997</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>10937909.51681</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>33113908.90492</v>
+        <v>33150698.78935001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>17693817.6709</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>17758652.3334</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>28701942.372</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>51429.97067000001</v>
+        <v>51429.97067</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>25927.68154</v>
@@ -1784,10 +1795,10 @@
         <v>171340.47568</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>101648.39429</v>
+        <v>103448.39429</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>145013.42494</v>
+        <v>172382.51799</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>200927.54062</v>
@@ -1799,19 +1810,24 @@
         <v>1090531.29458</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>431606.81018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>444071.86518</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>683483.517</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>50248.70643999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>87106.07529000001</v>
+        <v>87106.07528999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>15842.38313</v>
@@ -1820,13 +1836,13 @@
         <v>80717.696</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>35152.71143000001</v>
+        <v>35152.71143</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>68832.12135</v>
+        <v>68832.12135000002</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>86463.21046</v>
+        <v>113648.19366</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>138090.35263</v>
@@ -1838,58 +1854,68 @@
         <v>273275.67009</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>306175.71446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>306181.10213</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>427467.456</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>138097.63937</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>161107.72713</v>
+        <v>161108.11653</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>174391.57932</v>
+        <v>174413.80397</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>245714.26196</v>
+        <v>245822.57087</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>246678.82296</v>
+        <v>247619.90045</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>376830.09803</v>
+        <v>377765.05202</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>467278.45234</v>
+        <v>546646.18322</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>464184.77253</v>
+        <v>467494.72551</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>650150.62398</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1071687.66146</v>
+        <v>1074096.5691</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1094457.92903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1106759.17521</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1234337.664</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>7348.35598</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>41114.04442999999</v>
+        <v>41114.04443</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>4576.437730000001</v>
@@ -1898,31 +1924,36 @@
         <v>3679.94071</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5848.26767</v>
+        <v>5932.59002</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4061.24723</v>
+        <v>4120.225179999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4179.09565</v>
+        <v>14572.94732</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>8021.234900000001</v>
+        <v>8021.234899999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>23198.73476</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>51278.21591</v>
+        <v>51280.74259</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>22144.1854</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>52256.811</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>63090.95503</v>
@@ -1937,109 +1968,124 @@
         <v>113661.57005</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>102635.67169</v>
+        <v>102637.09208</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>76923.50925</v>
+        <v>76923.50959999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>100642.13295</v>
+        <v>100980.53657</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>116007.62956</v>
+        <v>118168.22496</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>104287.82301</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>123265.30206</v>
+        <v>138027.48718</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>127234.0867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>127404.0423</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>163172.567</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>49660.47818999999</v>
+        <v>49660.47819</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>44139.86288</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>66824.75979</v>
+        <v>66824.75979000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>250513.29724</v>
+        <v>250513.4911</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>87395.05828000001</v>
+        <v>87395.13449</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>132966.39301</v>
+        <v>133066.59245</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>214797.824</v>
+        <v>218508.54986</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>96935.26575000002</v>
+        <v>96935.27047999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>56472.48660000001</v>
+        <v>56472.4866</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>197776.60647</v>
+        <v>198344.71994</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>599292.4519199999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>599296.22788</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>256278.216</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1584836.14817</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1535338.03811</v>
+        <v>1535645.13898</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2353697.79426</v>
+        <v>2354662.097899999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1973892.57735</v>
+        <v>1983699.37688</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2971948.411979999</v>
+        <v>2992709.00816</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3747550.56067</v>
+        <v>3763022.4777</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7240782.28357</v>
+        <v>7760116.54845</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6978802.041069999</v>
+        <v>6989494.79894</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>8707822.27733</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>28792591.4698</v>
+        <v>28801140.37547</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13641319.62266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>13672565.77782</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>24168078.929</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>17522.81877</v>
@@ -2057,13 +2103,13 @@
         <v>118947.55949</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>175755.31763</v>
+        <v>185113.30544</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>152436.982</v>
+        <v>179561.52102</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>242186.07057</v>
+        <v>242800.64969</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>254105.81034</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>534968.33476</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>367547.119</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>956.8571299999999</v>
+        <v>956.85713</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>35.37832</v>
@@ -2111,94 +2162,109 @@
         <v>7.22321</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>860.3032799999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>607.83674</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>602.4690000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>282067.74413</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>325215.72806</v>
+        <v>325215.7280600001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>426367.61699</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>413896.76421</v>
+        <v>414037.51046</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>437225.50159</v>
+        <v>439792.86953</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>551996.2943</v>
+        <v>552118.06124</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>626743.21977</v>
+        <v>652462.1495800001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>718373.71261</v>
+        <v>719548.0939600001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>754832.3431300002</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1062027.39646</v>
+        <v>1072526.64231</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>935758.23251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>944653.78598</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1348717.624</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1915622.24156</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1736091.16719</v>
+        <v>1736260.47545</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3165113.06739</v>
+        <v>3165765.62248</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2133354.02855</v>
+        <v>2142161.83912</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4704517.680039999</v>
+        <v>4739149.28152</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4236160.1248</v>
+        <v>4266368.01746</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8920284.858139999</v>
+        <v>9389834.231630001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>8728960.22322</v>
+        <v>8741641.61115</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>11167114.23167</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>31210706.94066</v>
+        <v>31223263.47794</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15252437.3979</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15319171.9094</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>28021993.565</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>26754.71419</v>
+        <v>26754.71419000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>20715.95992</v>
@@ -2207,34 +2273,39 @@
         <v>34660.2192</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>28185.87207</v>
+        <v>28199.05713</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>25201.25824</v>
+        <v>26042.72422</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>30166.66304</v>
+        <v>30185.04496</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>40522.30452</v>
+        <v>55772.0985</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>50540.02163</v>
+        <v>50540.06537999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>56795.04525</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>79280.12171000001</v>
+        <v>79293.51162</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>83856.5904</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>83873.20784999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>124116.856</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>221901.46713</v>
@@ -2252,28 +2323,33 @@
         <v>186592.00723</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>187114.40623</v>
+        <v>187437.33983</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>407326.57463</v>
+        <v>427364.1956099999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>464199.1031400001</v>
+        <v>464199.10314</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>474013.19479</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>558325.3500099999</v>
+        <v>558384.71881</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>630051.3594500001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>647732.28779</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>763892.799</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>32919.17293</v>
@@ -2288,70 +2364,80 @@
         <v>263320.56299</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>37815.47486</v>
+        <v>37815.70233</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>15037.64229</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>21034.07244</v>
+        <v>21270.60164</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>13963.33322</v>
+        <v>13906.31934</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7532.190960000001</v>
+        <v>7532.19096</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>112336.82716</v>
+        <v>112336.86266</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>94148.86947000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>94148.86946999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>38840.763</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1469162.30338</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1353399.70978</v>
+        <v>1353569.01804</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2734460.01446</v>
+        <v>2735112.56955</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1490899.40635</v>
+        <v>1499694.03186</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3701833.76685</v>
+        <v>3733713.92246</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3684504.901150001</v>
+        <v>3699300.34761</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8131079.30477</v>
+        <v>8522053.056399999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7756545.34364</v>
+        <v>7768252.121269999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>10140860.99396</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>29555824.48975</v>
+        <v>29568139.9979</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13718354.62388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13767422.21206</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>26421029.554</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>23066.83686</v>
@@ -2369,10 +2455,10 @@
         <v>172111.50851</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>187995.4393</v>
+        <v>202102.67067</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>164421.25308</v>
+        <v>193839.87393</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>251336.21183</v>
@@ -2381,16 +2467,21 @@
         <v>280545.7214</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>576858.0963099999</v>
+        <v>576858.0963100001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>449524.0645800001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>449524.06458</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>367925.545</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>92.49282000000001</v>
@@ -2411,7 +2502,7 @@
         <v>98.58637000000002</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.02488000000000001</v>
+        <v>0.02488</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>3.01041</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>57.1433</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.698</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>141725.25425</v>
@@ -2444,109 +2540,124 @@
         <v>118231.06707</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>580809.33274</v>
+        <v>582719.08516</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>131242.48642</v>
+        <v>132206.38573</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>155901.32382</v>
+        <v>169534.38067</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>192373.19935</v>
+        <v>193404.77978</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>206054.31285</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>328063.1251</v>
+        <v>328231.36002</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>276444.74682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>276414.12435</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>306124.35</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1372031.41738</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1044379.43853</v>
+        <v>1044738.66129</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2117213.07608</v>
+        <v>2117899.53727</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1585013.43741</v>
+        <v>1588521.40415</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2940736.409109999</v>
+        <v>2953322.09912</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2987670.71691</v>
+        <v>3005934.68113</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4546388.61751</v>
+        <v>5119838.30581</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5399897.682010001</v>
+        <v>5413601.087150001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6784583.26008</v>
+        <v>6784583.260080001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>15461791.03251</v>
+        <v>15463250.5172</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>11185223.38848</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>11264146.41634</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>14532423.954</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1049765.48012</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>793450.3542899999</v>
+        <v>793809.57705</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1525370.30335</v>
+        <v>1526056.76454</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1270631.98601</v>
+        <v>1274139.95275</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2019330.49059</v>
+        <v>2029952.9068</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2393669.57333</v>
+        <v>2405607.92674</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3369949.02226</v>
+        <v>3488881.7445</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3819034.53175</v>
+        <v>3827561.193570001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4857737.3924</v>
+        <v>4857737.392399999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>10738479.79361</v>
+        <v>10739939.2783</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8946893.453560002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9024446.089979999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10163118.655</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>322265.93726</v>
@@ -2561,16 +2672,16 @@
         <v>314381.4514</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>921405.9185200001</v>
+        <v>923369.1923199999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>594001.1435799999</v>
+        <v>600326.75439</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1176439.59525</v>
+        <v>1630956.56131</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1580863.15026</v>
+        <v>1586039.89358</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1926845.86768</v>
@@ -2579,208 +2690,238 @@
         <v>4723311.238899999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2238329.93492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2239700.32636</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4369305.299</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1285067.31929</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2130151.75804</v>
+        <v>2130459.21552</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2334507.69671</v>
+        <v>2335466.77103</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2904432.052</v>
+        <v>2913322.69831</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1788916.28718</v>
+        <v>1788065.41403</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3759035.32505</v>
+        <v>3785290.97508</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3058238.09358</v>
+        <v>3364092.10531</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3449423.11937</v>
+        <v>3450052.22335</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>5888593.92433</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7102249.31409</v>
+        <v>7110370.04175</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>9523057.951130001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9527618.1384</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>17980148.931</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>643956.8883700002</v>
+        <v>643956.8883700001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>522534.1871799999</v>
+        <v>522539.29958</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>816556.3377200001</v>
+        <v>817266.5508499999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>728155.43446</v>
+        <v>729626.52376</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>864909.88121</v>
+        <v>865547.8872699999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>994756.9842300001</v>
+        <v>996560.8078</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1168523.57478</v>
+        <v>1184126.12868</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1748584.59204</v>
+        <v>1752009.0794</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1756545.01923</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2237921.29699</v>
+        <v>2242119.05882</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2067347.06833</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2090435.86761</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2441451.772</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>7250.73474</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>8135.673589999999</v>
+        <v>8135.67359</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>12618.85444</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>24377.29902</v>
+        <v>24380.86502</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>14413.64228</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>9475.288420000001</v>
+        <v>9479.508669999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>18272.00655</v>
+        <v>18276.08773</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>54664.50259</v>
+        <v>54686.07006000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>14480.26292</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>11662.63182</v>
+        <v>11669.62253</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>35905.77925</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>31254.16468</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>27470.477</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>636706.1536300001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>514398.51359</v>
+        <v>514403.62599</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>803937.4832799999</v>
+        <v>804647.69641</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>703778.1354400001</v>
+        <v>705245.65874</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>850496.2389300001</v>
+        <v>851134.24499</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>985281.6958100001</v>
+        <v>987081.2991299999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1150251.56823</v>
+        <v>1165850.04095</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1693920.08945</v>
+        <v>1697323.00934</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1742064.75631</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2226258.66517</v>
+        <v>2230449.43629</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2031441.28908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2059181.70293</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2413981.295</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>511534.1728399999</v>
+        <v>511534.17284</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>428675.37465</v>
+        <v>428709.88599</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1375317.24527</v>
+        <v>1375812.37182</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>538623.31739</v>
+        <v>538937.1313</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>574805.87769</v>
+        <v>575015.6838999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1074489.41426</v>
+        <v>1074923.19438</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>873372.6388499999</v>
+        <v>917478.52646</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1633997.85189</v>
+        <v>1637612.97778</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>958015.10747</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1942694.51276</v>
+        <v>1964892.63178</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1148144.11973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1169343.80108</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1939644.308</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>161271.84005</v>
@@ -2792,34 +2933,39 @@
         <v>124026.47074</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>141775.13822</v>
+        <v>141799.29499</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>164418.60941</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>138101.38764</v>
+        <v>138116.3603</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>138640.48673</v>
+        <v>158741.64601</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>148957.21877</v>
+        <v>148975.60727</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>200635.95192</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>289743.8910599999</v>
+        <v>290461.36456</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>324930.75244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>327253.88374</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>502967.744</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>33872.56636</v>
@@ -2831,187 +2977,210 @@
         <v>25638.17616</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>58691.37598</v>
+        <v>58692.36023000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>26332.56694</v>
+        <v>26529.05837</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>35052.38118</v>
+        <v>35115.49814</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>46593.17741</v>
+        <v>46691.16866</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>25287.38872</v>
+        <v>26167.25473</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>27563.28642</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>84771.53742000002</v>
+        <v>84834.24412999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>59495.00662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>59612.01063</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>79446.541</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>316389.76643</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>300331.89995</v>
+        <v>300366.41129</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1225652.59837</v>
+        <v>1226147.72492</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>338156.80319</v>
+        <v>338445.47608</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>384054.70134</v>
+        <v>384068.01612</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>901335.6454400001</v>
+        <v>901691.33594</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>688138.97471</v>
+        <v>712045.71179</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1459753.2444</v>
+        <v>1462470.11578</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>729815.86913</v>
+        <v>729815.8691300001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1568179.08428</v>
+        <v>1589597.02309</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>763718.3606700001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>782477.90671</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1357230.023</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1417490.03482</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2224010.57057</v>
+        <v>2224288.62911</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1775746.78916</v>
+        <v>1776920.95006</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3093964.16907</v>
+        <v>3104012.090770001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2079020.2907</v>
+        <v>2078597.6174</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3679302.89502</v>
+        <v>3706928.5885</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3353389.02951</v>
+        <v>3630739.70753</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3564009.85952</v>
+        <v>3564448.32497</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>6687123.83609</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7397476.09832</v>
+        <v>7387596.46879</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10442260.89973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>10448710.20493</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>18481956.395</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>260270.25719</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>344113.21877</v>
+        <v>344175.73228</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>477479.09308</v>
+        <v>477695.61177</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>485677.8522</v>
+        <v>487043.79145</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>532978.32419</v>
+        <v>533042.58131</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>650565.8024500001</v>
+        <v>653538.56515</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>678920.28476</v>
+        <v>722687.74029</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>673495.28861</v>
+        <v>673942.7271899999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>881930.2395199999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1240917.77991</v>
+        <v>1242442.82643</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1256632.43452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1269627.7183</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2168716.374</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1157219.77763</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1879897.3518</v>
+        <v>1880112.89683</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1298267.69608</v>
+        <v>1299225.33829</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2608286.31687</v>
+        <v>2616968.29932</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1546041.96651</v>
+        <v>1545555.03609</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3028737.09257</v>
+        <v>3053390.02335</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2674468.74475</v>
+        <v>2908051.96724</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2890514.570909999</v>
+        <v>2890505.59778</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>5805193.59657</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6156558.31841</v>
+        <v>6145153.64236</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9185628.465209998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9179082.48663</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>16313240.021</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>8586</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>8551</v>
+        <v>8552</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>8411</v>
+        <v>8413</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>8161</v>
+        <v>8166</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7964</v>
+        <v>7977</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7792</v>
+        <v>7818</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7859</v>
+        <v>7941</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>8039</v>
+        <v>8095</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>8377</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8078</v>
+        <v>8770</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9160</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>